--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mOdEL^\Desktop\Message Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mOdEL^\Desktop\WhatsApp-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -349,7 +349,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>915654868456</v>
+        <v>918413487645</v>
       </c>
     </row>
   </sheetData>

--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mOdEL^\Desktop\WhatsApp-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mOdEL\Desktop\WhatsApp-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>91856974XXXX</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,7 +346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -348,8 +358,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>918413487645</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
